--- a/biology/Médecine/1637_en_santé_et_médecine/1637_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1637_en_santé_et_médecine/1637_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1637_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1637_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1637 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1637_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1637_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Marie de Vignerot, duchesse d'Aiguillon, nièce du cardinal Richelieu, conseillée par le père Paul Le Jeune, supérieur des missions des Jésuites en Nouvelle-France, décide de fonder un hôpital à Québec[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marie de Vignerot, duchesse d'Aiguillon, nièce du cardinal Richelieu, conseillée par le père Paul Le Jeune, supérieur des missions des Jésuites en Nouvelle-France, décide de fonder un hôpital à Québec.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1637_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1637_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Angelo Sala (1576-1637) publie Angeli Salae, Vicentini Veneti, Chymiatri Candidissimi, Saccharologia[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Angelo Sala (1576-1637) publie Angeli Salae, Vicentini Veneti, Chymiatri Candidissimi, Saccharologia.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1637_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1637_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12 février : Jan Swammerdam (mort en 1680), médecin et naturaliste néerlandais[3].
-13 mai : Giacinto Cestoni (mort en 1718), pharmacien italien[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 février : Jan Swammerdam (mort en 1680), médecin et naturaliste néerlandais.
+13 mai : Giacinto Cestoni (mort en 1718), pharmacien italien.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1637_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1637_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,11 +620,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>21 juillet : Daniel Sennert (né en 1572), médecin allemand, professeur à l'Université de Wittemberg. Il contribua à la renaissance de l'atomisme[5].
-8 septembre : Robert Fludd (né en 1574), médecin paracelsien, astrologue et mystique anglais[6].
-2 octobre : Angelo Sala (né en 1576), médecin et chimiste italien[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>21 juillet : Daniel Sennert (né en 1572), médecin allemand, professeur à l'Université de Wittemberg. Il contribua à la renaissance de l'atomisme.
+8 septembre : Robert Fludd (né en 1574), médecin paracelsien, astrologue et mystique anglais.
+2 octobre : Angelo Sala (né en 1576), médecin et chimiste italien.</t>
         </is>
       </c>
     </row>
